--- a/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions1957.xlsx
+++ b/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions1957.xlsx
@@ -37,19 +37,19 @@
     <t>主题5</t>
   </si>
   <si>
-    <t>0.001*"import" + 0.001*"payment" + 0.001*"exchange" + 0.001*"may" + 0.001*"export" + 0.001*"rate" + 0.001*"foreign" + 0.001*"account" + 0.001*"currency" + 0.001*"bank"</t>
-  </si>
-  <si>
-    <t>0.024*"exchange" + 0.022*"import" + 0.017*"payment" + 0.016*"export" + 0.015*"account" + 0.013*"bank" + 0.013*"may" + 0.013*"rate" + 0.013*"currency" + 0.012*"country"</t>
-  </si>
-  <si>
-    <t>0.003*"import" + 0.003*"payment" + 0.002*"exchange" + 0.002*"may" + 0.002*"bank" + 0.002*"country" + 0.002*"account" + 0.002*"foreign" + 0.002*"export" + 0.002*"rate"</t>
-  </si>
-  <si>
-    <t>0.002*"import" + 0.001*"exchange" + 0.001*"may" + 0.001*"foreign" + 0.001*"export" + 0.001*"payment" + 0.001*"country" + 0.001*"account" + 0.001*"bank" + 0.001*"currency"</t>
-  </si>
-  <si>
-    <t>0.005*"exchange" + 0.004*"import" + 0.004*"payment" + 0.004*"rate" + 0.004*"account" + 0.003*"export" + 0.003*"currency" + 0.003*"may" + 0.003*"per" + 0.002*"bank"</t>
+    <t>0.066*"rate" + 0.052*"exchange" + 0.037*"capital" + 0.032*"invisibles" + 0.028*"redistribution" + 0.025*"payment" + 0.025*"official" + 0.025*"market" + 0.018*"free" + 0.013*"system"</t>
+  </si>
+  <si>
+    <t>0.072*"per" + 0.052*"fund" + 0.044*"monetary" + 0.040*"international" + 0.038*"cent" + 0.023*"u" + 0.016*"exchange" + 0.013*"export" + 0.011*"tax" + 0.010*"july"</t>
+  </si>
+  <si>
+    <t>0.041*"exchange" + 0.027*"control" + 0.018*"bank" + 0.018*"currency" + 0.016*"country" + 0.015*"import" + 0.014*"payment" + 0.012*"sell" + 0.011*"include" + 0.010*"foreign"</t>
+  </si>
+  <si>
+    <t>0.035*"bank" + 0.032*"account" + 0.030*"currency" + 0.028*"payment" + 0.026*"dollar" + 0.026*"area" + 0.025*"country" + 0.024*"may" + 0.020*"sterling" + 0.015*"agreement"</t>
+  </si>
+  <si>
+    <t>0.072*"import" + 0.058*"export" + 0.034*"license" + 0.019*"proceeds" + 0.019*"account" + 0.018*"good" + 0.018*"may" + 0.016*"require" + 0.015*"certain" + 0.013*"payment"</t>
   </si>
 </sst>
 </file>
